--- a/Assets/text/스탯 상세.xlsx
+++ b/Assets/text/스탯 상세.xlsx
@@ -90,7 +90,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격력+(3+단계*3)</t>
+    <t>젤리맨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(캐릭터 공격력+스킬 추가 공격력)*2-(피격 대상 방어력)*1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강한 젤리맨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거대 젤리맨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5초간 방어력+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력+(단계*4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -98,31 +122,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>젤리맨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(캐릭터 공격력+스킬 추가 공격력)*2-(피격 대상 방어력)*1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강한 젤리맨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5초간 방어력+(2+단계)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거대 젤리맨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5초간 방어력+5</t>
+    <t>3초간 방어력+(1+단계)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,61 +360,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -700,7 +700,7 @@
   <dimension ref="B1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H6" sqref="H6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -711,91 +711,91 @@
   <sheetData>
     <row r="1" spans="2:16" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>100</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>10</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="3">
-        <v>8</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="J3" s="2">
+        <v>6</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="10"/>
-      <c r="G4" s="4" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -803,155 +803,155 @@
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="16"/>
-      <c r="G6" s="6" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="G6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="19"/>
-      <c r="G7" s="7" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="G7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>50</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>120</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="4" t="s">
+      <c r="M9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="2">
         <v>300</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>15</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>10</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <v>25</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10"/>
-      <c r="G11" s="4" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="G11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="10"/>
-      <c r="L11" s="4" t="s">
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="L11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="11"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -959,7 +959,7 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="12" t="s">
@@ -967,7 +967,7 @@
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="14"/>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M12" s="12" t="s">
@@ -977,56 +977,56 @@
       <c r="O12" s="14"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="16"/>
-      <c r="G13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="G13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="16"/>
-      <c r="L13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
+      <c r="L13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="19"/>
-      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="G14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="19"/>
-      <c r="L14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20"/>
+      <c r="L14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="19"/>
+        <v>17</v>
+      </c>
+      <c r="N14" s="19"/>
+      <c r="O14" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -1041,12 +1041,12 @@
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C11:E11"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C11:E11"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="C4:E4"/>
